--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_279.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_279.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32341-d8073010-Reviews-Fairfield_Inn_Suites_Los_Angeles_LAX_El_Segundo-El_Segundo_California.html</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>279</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Fairfield-Inn-Suites-Los-Angeles-LAXEl-Segundo.h15727.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_279.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_279.xlsx
@@ -4408,7 +4408,7 @@
         <v>64891</v>
       </c>
       <c r="B3" t="n">
-        <v>146830</v>
+        <v>178186</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -4473,7 +4473,7 @@
         <v>64891</v>
       </c>
       <c r="B4" t="n">
-        <v>146831</v>
+        <v>178187</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
@@ -4538,7 +4538,7 @@
         <v>64891</v>
       </c>
       <c r="B5" t="n">
-        <v>146832</v>
+        <v>178188</v>
       </c>
       <c r="C5" t="s">
         <v>73</v>
@@ -4605,7 +4605,7 @@
         <v>64891</v>
       </c>
       <c r="B6" t="n">
-        <v>146833</v>
+        <v>178189</v>
       </c>
       <c r="C6" t="s">
         <v>82</v>
@@ -4666,7 +4666,7 @@
         <v>64891</v>
       </c>
       <c r="B7" t="n">
-        <v>146834</v>
+        <v>178190</v>
       </c>
       <c r="C7" t="s">
         <v>91</v>
@@ -4731,7 +4731,7 @@
         <v>64891</v>
       </c>
       <c r="B8" t="n">
-        <v>146835</v>
+        <v>178191</v>
       </c>
       <c r="C8" t="s">
         <v>98</v>
@@ -4867,7 +4867,7 @@
         <v>64891</v>
       </c>
       <c r="B10" t="n">
-        <v>146836</v>
+        <v>178192</v>
       </c>
       <c r="C10" t="s">
         <v>116</v>
@@ -4932,7 +4932,7 @@
         <v>64891</v>
       </c>
       <c r="B11" t="n">
-        <v>146837</v>
+        <v>178193</v>
       </c>
       <c r="C11" t="s">
         <v>126</v>
@@ -5133,7 +5133,7 @@
         <v>64891</v>
       </c>
       <c r="B14" t="n">
-        <v>146838</v>
+        <v>178194</v>
       </c>
       <c r="C14" t="s">
         <v>154</v>
@@ -5263,7 +5263,7 @@
         <v>64891</v>
       </c>
       <c r="B16" t="n">
-        <v>146839</v>
+        <v>178195</v>
       </c>
       <c r="C16" t="s">
         <v>173</v>
@@ -5399,7 +5399,7 @@
         <v>64891</v>
       </c>
       <c r="B18" t="n">
-        <v>146840</v>
+        <v>178196</v>
       </c>
       <c r="C18" t="s">
         <v>191</v>
@@ -5464,7 +5464,7 @@
         <v>64891</v>
       </c>
       <c r="B19" t="n">
-        <v>146841</v>
+        <v>178197</v>
       </c>
       <c r="C19" t="s">
         <v>200</v>
@@ -5529,7 +5529,7 @@
         <v>64891</v>
       </c>
       <c r="B20" t="n">
-        <v>146842</v>
+        <v>178198</v>
       </c>
       <c r="C20" t="s">
         <v>209</v>
@@ -5663,7 +5663,7 @@
         <v>64891</v>
       </c>
       <c r="B22" t="n">
-        <v>146843</v>
+        <v>178199</v>
       </c>
       <c r="C22" t="s">
         <v>227</v>
@@ -5734,7 +5734,7 @@
         <v>64891</v>
       </c>
       <c r="B23" t="n">
-        <v>146844</v>
+        <v>178200</v>
       </c>
       <c r="C23" t="s">
         <v>236</v>
@@ -5870,7 +5870,7 @@
         <v>64891</v>
       </c>
       <c r="B25" t="n">
-        <v>146845</v>
+        <v>178201</v>
       </c>
       <c r="C25" t="s">
         <v>253</v>
@@ -5935,7 +5935,7 @@
         <v>64891</v>
       </c>
       <c r="B26" t="n">
-        <v>146846</v>
+        <v>178202</v>
       </c>
       <c r="C26" t="s">
         <v>262</v>
@@ -6000,7 +6000,7 @@
         <v>64891</v>
       </c>
       <c r="B27" t="n">
-        <v>146847</v>
+        <v>178203</v>
       </c>
       <c r="C27" t="s">
         <v>269</v>
@@ -6130,7 +6130,7 @@
         <v>64891</v>
       </c>
       <c r="B29" t="n">
-        <v>146848</v>
+        <v>178204</v>
       </c>
       <c r="C29" t="s">
         <v>288</v>
@@ -6201,7 +6201,7 @@
         <v>64891</v>
       </c>
       <c r="B30" t="n">
-        <v>146849</v>
+        <v>178205</v>
       </c>
       <c r="C30" t="s">
         <v>297</v>
@@ -6272,7 +6272,7 @@
         <v>64891</v>
       </c>
       <c r="B31" t="n">
-        <v>146850</v>
+        <v>178206</v>
       </c>
       <c r="C31" t="s">
         <v>305</v>
@@ -6337,7 +6337,7 @@
         <v>64891</v>
       </c>
       <c r="B32" t="n">
-        <v>146851</v>
+        <v>178207</v>
       </c>
       <c r="C32" t="s">
         <v>314</v>
@@ -6544,7 +6544,7 @@
         <v>64891</v>
       </c>
       <c r="B35" t="n">
-        <v>146852</v>
+        <v>178208</v>
       </c>
       <c r="C35" t="s">
         <v>339</v>
@@ -6605,7 +6605,7 @@
         <v>64891</v>
       </c>
       <c r="B36" t="n">
-        <v>146853</v>
+        <v>178209</v>
       </c>
       <c r="C36" t="s">
         <v>348</v>
@@ -6680,7 +6680,7 @@
         <v>64891</v>
       </c>
       <c r="B37" t="n">
-        <v>146854</v>
+        <v>178210</v>
       </c>
       <c r="C37" t="s">
         <v>355</v>
@@ -6745,7 +6745,7 @@
         <v>64891</v>
       </c>
       <c r="B38" t="n">
-        <v>146855</v>
+        <v>178211</v>
       </c>
       <c r="C38" t="s">
         <v>364</v>
@@ -6810,7 +6810,7 @@
         <v>64891</v>
       </c>
       <c r="B39" t="n">
-        <v>146856</v>
+        <v>178212</v>
       </c>
       <c r="C39" t="s">
         <v>373</v>
@@ -6875,7 +6875,7 @@
         <v>64891</v>
       </c>
       <c r="B40" t="n">
-        <v>146857</v>
+        <v>178213</v>
       </c>
       <c r="C40" t="s">
         <v>381</v>
@@ -7007,7 +7007,7 @@
         <v>64891</v>
       </c>
       <c r="B42" t="n">
-        <v>146858</v>
+        <v>178214</v>
       </c>
       <c r="C42" t="s">
         <v>397</v>
@@ -7072,7 +7072,7 @@
         <v>64891</v>
       </c>
       <c r="B43" t="n">
-        <v>146859</v>
+        <v>178215</v>
       </c>
       <c r="C43" t="s">
         <v>406</v>
@@ -7137,7 +7137,7 @@
         <v>64891</v>
       </c>
       <c r="B44" t="n">
-        <v>146860</v>
+        <v>178216</v>
       </c>
       <c r="C44" t="s">
         <v>413</v>
@@ -7277,7 +7277,7 @@
         <v>64891</v>
       </c>
       <c r="B46" t="n">
-        <v>146861</v>
+        <v>178217</v>
       </c>
       <c r="C46" t="s">
         <v>431</v>
@@ -7342,7 +7342,7 @@
         <v>64891</v>
       </c>
       <c r="B47" t="n">
-        <v>146862</v>
+        <v>178218</v>
       </c>
       <c r="C47" t="s">
         <v>440</v>
@@ -7413,7 +7413,7 @@
         <v>64891</v>
       </c>
       <c r="B48" t="n">
-        <v>146863</v>
+        <v>178219</v>
       </c>
       <c r="C48" t="s">
         <v>449</v>
@@ -7549,7 +7549,7 @@
         <v>64891</v>
       </c>
       <c r="B50" t="n">
-        <v>146864</v>
+        <v>178220</v>
       </c>
       <c r="C50" t="s">
         <v>462</v>
@@ -7614,7 +7614,7 @@
         <v>64891</v>
       </c>
       <c r="B51" t="n">
-        <v>146865</v>
+        <v>178221</v>
       </c>
       <c r="C51" t="s">
         <v>471</v>
@@ -7679,7 +7679,7 @@
         <v>64891</v>
       </c>
       <c r="B52" t="n">
-        <v>146866</v>
+        <v>178222</v>
       </c>
       <c r="C52" t="s">
         <v>478</v>
@@ -7809,7 +7809,7 @@
         <v>64891</v>
       </c>
       <c r="B54" t="n">
-        <v>146867</v>
+        <v>178223</v>
       </c>
       <c r="C54" t="s">
         <v>491</v>
@@ -7874,7 +7874,7 @@
         <v>64891</v>
       </c>
       <c r="B55" t="n">
-        <v>146868</v>
+        <v>178224</v>
       </c>
       <c r="C55" t="s">
         <v>497</v>
@@ -7939,7 +7939,7 @@
         <v>64891</v>
       </c>
       <c r="B56" t="n">
-        <v>146869</v>
+        <v>178225</v>
       </c>
       <c r="C56" t="s">
         <v>505</v>
@@ -8004,7 +8004,7 @@
         <v>64891</v>
       </c>
       <c r="B57" t="n">
-        <v>146870</v>
+        <v>178226</v>
       </c>
       <c r="C57" t="s">
         <v>515</v>
@@ -8073,7 +8073,7 @@
         <v>64891</v>
       </c>
       <c r="B58" t="n">
-        <v>146871</v>
+        <v>178227</v>
       </c>
       <c r="C58" t="s">
         <v>525</v>
@@ -8404,7 +8404,7 @@
         <v>64891</v>
       </c>
       <c r="B63" t="n">
-        <v>146872</v>
+        <v>178228</v>
       </c>
       <c r="C63" t="s">
         <v>557</v>
@@ -8530,7 +8530,7 @@
         <v>64891</v>
       </c>
       <c r="B65" t="n">
-        <v>146873</v>
+        <v>178229</v>
       </c>
       <c r="C65" t="s">
         <v>570</v>
@@ -8601,7 +8601,7 @@
         <v>64891</v>
       </c>
       <c r="B66" t="n">
-        <v>146874</v>
+        <v>178230</v>
       </c>
       <c r="C66" t="s">
         <v>577</v>
@@ -8666,7 +8666,7 @@
         <v>64891</v>
       </c>
       <c r="B67" t="n">
-        <v>146875</v>
+        <v>178231</v>
       </c>
       <c r="C67" t="s">
         <v>586</v>
@@ -8737,7 +8737,7 @@
         <v>64891</v>
       </c>
       <c r="B68" t="n">
-        <v>146876</v>
+        <v>178232</v>
       </c>
       <c r="C68" t="s">
         <v>592</v>
@@ -8944,7 +8944,7 @@
         <v>64891</v>
       </c>
       <c r="B71" t="n">
-        <v>146877</v>
+        <v>178233</v>
       </c>
       <c r="C71" t="s">
         <v>615</v>
@@ -9013,7 +9013,7 @@
         <v>64891</v>
       </c>
       <c r="B72" t="n">
-        <v>146878</v>
+        <v>178234</v>
       </c>
       <c r="C72" t="s">
         <v>622</v>
@@ -9078,7 +9078,7 @@
         <v>64891</v>
       </c>
       <c r="B73" t="n">
-        <v>146879</v>
+        <v>178235</v>
       </c>
       <c r="C73" t="s">
         <v>629</v>
@@ -9147,7 +9147,7 @@
         <v>64891</v>
       </c>
       <c r="B74" t="n">
-        <v>146880</v>
+        <v>178236</v>
       </c>
       <c r="C74" t="s">
         <v>638</v>
@@ -9218,7 +9218,7 @@
         <v>64891</v>
       </c>
       <c r="B75" t="n">
-        <v>146881</v>
+        <v>178237</v>
       </c>
       <c r="C75" t="s">
         <v>646</v>
@@ -9287,7 +9287,7 @@
         <v>64891</v>
       </c>
       <c r="B76" t="n">
-        <v>146882</v>
+        <v>178238</v>
       </c>
       <c r="C76" t="s">
         <v>655</v>
@@ -9352,7 +9352,7 @@
         <v>64891</v>
       </c>
       <c r="B77" t="n">
-        <v>146883</v>
+        <v>178239</v>
       </c>
       <c r="C77" t="s">
         <v>661</v>
@@ -9423,7 +9423,7 @@
         <v>64891</v>
       </c>
       <c r="B78" t="n">
-        <v>146884</v>
+        <v>178240</v>
       </c>
       <c r="C78" t="s">
         <v>668</v>
@@ -9488,7 +9488,7 @@
         <v>64891</v>
       </c>
       <c r="B79" t="n">
-        <v>146885</v>
+        <v>178241</v>
       </c>
       <c r="C79" t="s">
         <v>677</v>
@@ -9689,7 +9689,7 @@
         <v>64891</v>
       </c>
       <c r="B82" t="n">
-        <v>146886</v>
+        <v>178242</v>
       </c>
       <c r="C82" t="s">
         <v>697</v>
@@ -9825,7 +9825,7 @@
         <v>64891</v>
       </c>
       <c r="B84" t="n">
-        <v>146887</v>
+        <v>178243</v>
       </c>
       <c r="C84" t="s">
         <v>711</v>
@@ -9890,7 +9890,7 @@
         <v>64891</v>
       </c>
       <c r="B85" t="n">
-        <v>146888</v>
+        <v>178244</v>
       </c>
       <c r="C85" t="s">
         <v>720</v>
@@ -9961,7 +9961,7 @@
         <v>64891</v>
       </c>
       <c r="B86" t="n">
-        <v>146889</v>
+        <v>178245</v>
       </c>
       <c r="C86" t="s">
         <v>726</v>
@@ -10093,7 +10093,7 @@
         <v>64891</v>
       </c>
       <c r="B88" t="n">
-        <v>146890</v>
+        <v>178246</v>
       </c>
       <c r="C88" t="s">
         <v>739</v>
@@ -10164,7 +10164,7 @@
         <v>64891</v>
       </c>
       <c r="B89" t="n">
-        <v>146891</v>
+        <v>178247</v>
       </c>
       <c r="C89" t="s">
         <v>746</v>
@@ -10231,7 +10231,7 @@
         <v>64891</v>
       </c>
       <c r="B90" t="n">
-        <v>146892</v>
+        <v>178248</v>
       </c>
       <c r="C90" t="s">
         <v>753</v>
@@ -10359,7 +10359,7 @@
         <v>64891</v>
       </c>
       <c r="B92" t="n">
-        <v>146893</v>
+        <v>178249</v>
       </c>
       <c r="C92" t="s">
         <v>765</v>
@@ -10489,7 +10489,7 @@
         <v>64891</v>
       </c>
       <c r="B94" t="n">
-        <v>146894</v>
+        <v>178250</v>
       </c>
       <c r="C94" t="s">
         <v>780</v>
@@ -10550,7 +10550,7 @@
         <v>64891</v>
       </c>
       <c r="B95" t="n">
-        <v>146895</v>
+        <v>178251</v>
       </c>
       <c r="C95" t="s">
         <v>786</v>
@@ -10615,7 +10615,7 @@
         <v>64891</v>
       </c>
       <c r="B96" t="n">
-        <v>146896</v>
+        <v>178252</v>
       </c>
       <c r="C96" t="s">
         <v>795</v>
@@ -10686,7 +10686,7 @@
         <v>64891</v>
       </c>
       <c r="B97" t="n">
-        <v>146897</v>
+        <v>178253</v>
       </c>
       <c r="C97" t="s">
         <v>802</v>
@@ -10751,7 +10751,7 @@
         <v>64891</v>
       </c>
       <c r="B98" t="n">
-        <v>146898</v>
+        <v>178254</v>
       </c>
       <c r="C98" t="s">
         <v>810</v>
@@ -10881,7 +10881,7 @@
         <v>64891</v>
       </c>
       <c r="B100" t="n">
-        <v>146899</v>
+        <v>178255</v>
       </c>
       <c r="C100" t="s">
         <v>823</v>
@@ -10946,7 +10946,7 @@
         <v>64891</v>
       </c>
       <c r="B101" t="n">
-        <v>146900</v>
+        <v>178256</v>
       </c>
       <c r="C101" t="s">
         <v>829</v>
@@ -11011,7 +11011,7 @@
         <v>64891</v>
       </c>
       <c r="B102" t="n">
-        <v>146901</v>
+        <v>178257</v>
       </c>
       <c r="C102" t="s">
         <v>835</v>
@@ -11078,7 +11078,7 @@
         <v>64891</v>
       </c>
       <c r="B103" t="n">
-        <v>146902</v>
+        <v>178258</v>
       </c>
       <c r="C103" t="s">
         <v>842</v>
@@ -11139,7 +11139,7 @@
         <v>64891</v>
       </c>
       <c r="B104" t="n">
-        <v>146903</v>
+        <v>178259</v>
       </c>
       <c r="C104" t="s">
         <v>849</v>
@@ -11200,7 +11200,7 @@
         <v>64891</v>
       </c>
       <c r="B105" t="n">
-        <v>146904</v>
+        <v>178260</v>
       </c>
       <c r="C105" t="s">
         <v>856</v>
@@ -11328,7 +11328,7 @@
         <v>64891</v>
       </c>
       <c r="B107" t="n">
-        <v>146905</v>
+        <v>178261</v>
       </c>
       <c r="C107" t="s">
         <v>869</v>
@@ -11466,7 +11466,7 @@
         <v>64891</v>
       </c>
       <c r="B109" t="n">
-        <v>146906</v>
+        <v>178262</v>
       </c>
       <c r="C109" t="s">
         <v>884</v>
@@ -11531,7 +11531,7 @@
         <v>64891</v>
       </c>
       <c r="B110" t="n">
-        <v>146907</v>
+        <v>178263</v>
       </c>
       <c r="C110" t="s">
         <v>890</v>
@@ -11667,7 +11667,7 @@
         <v>64891</v>
       </c>
       <c r="B112" t="n">
-        <v>146908</v>
+        <v>178264</v>
       </c>
       <c r="C112" t="s">
         <v>906</v>
@@ -11732,7 +11732,7 @@
         <v>64891</v>
       </c>
       <c r="B113" t="n">
-        <v>146909</v>
+        <v>178265</v>
       </c>
       <c r="C113" t="s">
         <v>913</v>
@@ -11803,7 +11803,7 @@
         <v>64891</v>
       </c>
       <c r="B114" t="n">
-        <v>146910</v>
+        <v>178266</v>
       </c>
       <c r="C114" t="s">
         <v>920</v>
@@ -12004,7 +12004,7 @@
         <v>64891</v>
       </c>
       <c r="B117" t="n">
-        <v>146911</v>
+        <v>178267</v>
       </c>
       <c r="C117" t="s">
         <v>943</v>
@@ -12065,7 +12065,7 @@
         <v>64891</v>
       </c>
       <c r="B118" t="n">
-        <v>146912</v>
+        <v>178268</v>
       </c>
       <c r="C118" t="s">
         <v>949</v>
@@ -12136,7 +12136,7 @@
         <v>64891</v>
       </c>
       <c r="B119" t="n">
-        <v>146913</v>
+        <v>178269</v>
       </c>
       <c r="C119" t="s">
         <v>956</v>
@@ -12205,7 +12205,7 @@
         <v>64891</v>
       </c>
       <c r="B120" t="n">
-        <v>146914</v>
+        <v>178270</v>
       </c>
       <c r="C120" t="s">
         <v>965</v>
@@ -12341,7 +12341,7 @@
         <v>64891</v>
       </c>
       <c r="B122" t="n">
-        <v>146915</v>
+        <v>178271</v>
       </c>
       <c r="C122" t="s">
         <v>978</v>
@@ -12412,7 +12412,7 @@
         <v>64891</v>
       </c>
       <c r="B123" t="n">
-        <v>146916</v>
+        <v>178272</v>
       </c>
       <c r="C123" t="s">
         <v>988</v>
@@ -12548,7 +12548,7 @@
         <v>64891</v>
       </c>
       <c r="B125" t="n">
-        <v>146917</v>
+        <v>178273</v>
       </c>
       <c r="C125" t="s">
         <v>1004</v>
@@ -12613,7 +12613,7 @@
         <v>64891</v>
       </c>
       <c r="B126" t="n">
-        <v>146918</v>
+        <v>178274</v>
       </c>
       <c r="C126" t="s">
         <v>1013</v>
@@ -12753,7 +12753,7 @@
         <v>64891</v>
       </c>
       <c r="B128" t="n">
-        <v>146919</v>
+        <v>178275</v>
       </c>
       <c r="C128" t="s">
         <v>1028</v>
@@ -12814,7 +12814,7 @@
         <v>64891</v>
       </c>
       <c r="B129" t="n">
-        <v>146920</v>
+        <v>178276</v>
       </c>
       <c r="C129" t="s">
         <v>1036</v>
@@ -12879,7 +12879,7 @@
         <v>64891</v>
       </c>
       <c r="B130" t="n">
-        <v>146921</v>
+        <v>178277</v>
       </c>
       <c r="C130" t="s">
         <v>1042</v>
@@ -12944,7 +12944,7 @@
         <v>64891</v>
       </c>
       <c r="B131" t="n">
-        <v>146922</v>
+        <v>178278</v>
       </c>
       <c r="C131" t="s">
         <v>1049</v>
@@ -13009,7 +13009,7 @@
         <v>64891</v>
       </c>
       <c r="B132" t="n">
-        <v>146923</v>
+        <v>178279</v>
       </c>
       <c r="C132" t="s">
         <v>1056</v>
@@ -13076,7 +13076,7 @@
         <v>64891</v>
       </c>
       <c r="B133" t="n">
-        <v>146924</v>
+        <v>178280</v>
       </c>
       <c r="C133" t="s">
         <v>1063</v>
@@ -13147,7 +13147,7 @@
         <v>64891</v>
       </c>
       <c r="B134" t="n">
-        <v>146925</v>
+        <v>178281</v>
       </c>
       <c r="C134" t="s">
         <v>1071</v>
@@ -13212,7 +13212,7 @@
         <v>64891</v>
       </c>
       <c r="B135" t="n">
-        <v>146926</v>
+        <v>178282</v>
       </c>
       <c r="C135" t="s">
         <v>1078</v>
@@ -13417,7 +13417,7 @@
         <v>64891</v>
       </c>
       <c r="B138" t="n">
-        <v>146927</v>
+        <v>178283</v>
       </c>
       <c r="C138" t="s">
         <v>1105</v>
@@ -13482,7 +13482,7 @@
         <v>64891</v>
       </c>
       <c r="B139" t="n">
-        <v>146928</v>
+        <v>178284</v>
       </c>
       <c r="C139" t="s">
         <v>1111</v>
@@ -13553,7 +13553,7 @@
         <v>64891</v>
       </c>
       <c r="B140" t="n">
-        <v>146929</v>
+        <v>178285</v>
       </c>
       <c r="C140" t="s">
         <v>1120</v>
@@ -13624,7 +13624,7 @@
         <v>64891</v>
       </c>
       <c r="B141" t="n">
-        <v>146930</v>
+        <v>178286</v>
       </c>
       <c r="C141" t="s">
         <v>1127</v>
@@ -13689,7 +13689,7 @@
         <v>64891</v>
       </c>
       <c r="B142" t="n">
-        <v>146931</v>
+        <v>178287</v>
       </c>
       <c r="C142" t="s">
         <v>1134</v>
@@ -13961,7 +13961,7 @@
         <v>64891</v>
       </c>
       <c r="B146" t="n">
-        <v>146932</v>
+        <v>178288</v>
       </c>
       <c r="C146" t="s">
         <v>1167</v>
@@ -14026,7 +14026,7 @@
         <v>64891</v>
       </c>
       <c r="B147" t="n">
-        <v>146933</v>
+        <v>178289</v>
       </c>
       <c r="C147" t="s">
         <v>1176</v>
@@ -14097,7 +14097,7 @@
         <v>64891</v>
       </c>
       <c r="B148" t="n">
-        <v>146934</v>
+        <v>178290</v>
       </c>
       <c r="C148" t="s">
         <v>1183</v>
@@ -14436,7 +14436,7 @@
         <v>64891</v>
       </c>
       <c r="B153" t="n">
-        <v>146935</v>
+        <v>178291</v>
       </c>
       <c r="C153" t="s">
         <v>1226</v>
@@ -14501,7 +14501,7 @@
         <v>64891</v>
       </c>
       <c r="B154" t="n">
-        <v>146936</v>
+        <v>178292</v>
       </c>
       <c r="C154" t="s">
         <v>1235</v>
@@ -14566,7 +14566,7 @@
         <v>64891</v>
       </c>
       <c r="B155" t="n">
-        <v>146937</v>
+        <v>178293</v>
       </c>
       <c r="C155" t="s">
         <v>1241</v>
